--- a/doc/Arbeitsjournal/Arbeitsjournal.xlsx
+++ b/doc/Arbeitsjournal/Arbeitsjournal.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Sitzung #1</t>
+  </si>
+  <si>
+    <t>Klassendiagramm erstellen, Arbeitsjournal init</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +403,7 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="77.400000000000006" x14ac:dyDescent="0.3">
@@ -485,6 +488,20 @@
       </c>
       <c r="D6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>42279</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Arbeitsjournal/Arbeitsjournal.xlsx
+++ b/doc/Arbeitsjournal/Arbeitsjournal.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Klassendiagramm erstellen, Arbeitsjournal init</t>
+  </si>
+  <si>
+    <t>06.10.02015</t>
+  </si>
+  <si>
+    <t>Init main Project / Build main Class Structur / Start with loading maps from txt</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +409,7 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="77.400000000000006" x14ac:dyDescent="0.3">
@@ -502,6 +508,20 @@
       </c>
       <c r="D7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Arbeitsjournal/Arbeitsjournal.xlsx
+++ b/doc/Arbeitsjournal/Arbeitsjournal.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Init main Project / Build main Class Structur / Start with loading maps from txt</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Playground project (Menu, Maps einlesen)</t>
+  </si>
+  <si>
+    <t>Doku</t>
   </si>
 </sst>
 </file>
@@ -112,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,9 +161,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,21 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="77.400000000000006" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42265</v>
       </c>
@@ -440,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42267</v>
       </c>
@@ -454,78 +463,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <v>42268</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42271</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42272</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>42270</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42279</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42284</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5">
+  <autoFilter ref="A1:D6">
     <sortState ref="A2:D5">
       <sortCondition ref="A1:A5"/>
     </sortState>
